--- a/images/odg/RCC5V_track_symbol_points_260124.xlsx
+++ b/images/odg/RCC5V_track_symbol_points_260124.xlsx
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
